--- a/lisha1.00/doc_tech/screenshots.xlsx
+++ b/lisha1.00/doc_tech/screenshots.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23820" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25840" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -8993,20 +8993,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>697</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>719</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>730</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>754</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="152" name="Image 151"/>
+        <xdr:cNvPr id="159" name="Image 158"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9019,8 +9019,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="132816600"/>
-          <a:ext cx="6692900" cy="4191000"/>
+          <a:off x="1485900" y="139065000"/>
+          <a:ext cx="6908800" cy="4737100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9039,19 +9039,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>721</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>727</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>755</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>774</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="153" name="Image 152"/>
+        <xdr:cNvPr id="160" name="Image 159"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9064,8 +9064,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2971800" y="137439400"/>
-          <a:ext cx="10795000" cy="1155700"/>
+          <a:off x="2857500" y="143967200"/>
+          <a:ext cx="6731000" cy="3517900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9083,26 +9083,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>734</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>702</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>706</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>745</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="Rectangle 153"/>
+        <xdr:cNvPr id="161" name="Rectangle 160"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7086600" y="133756400"/>
-          <a:ext cx="1371600" cy="812800"/>
+          <a:off x="6019800" y="140004800"/>
+          <a:ext cx="1371600" cy="1968500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9155,26 +9155,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>707</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>712</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>744</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>745</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="155" name="Rectangle 154"/>
+        <xdr:cNvPr id="162" name="Rectangle 161"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7086600" y="134734300"/>
-          <a:ext cx="1371600" cy="952500"/>
+          <a:off x="2921000" y="141770100"/>
+          <a:ext cx="1397000" cy="203200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9227,26 +9227,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>653986</xdr:colOff>
-      <xdr:row>711</xdr:row>
-      <xdr:rowOff>174481</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>30142</xdr:colOff>
-      <xdr:row>725</xdr:row>
-      <xdr:rowOff>71726</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>392014</xdr:colOff>
+      <xdr:row>742</xdr:row>
+      <xdr:rowOff>190077</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>607884</xdr:colOff>
+      <xdr:row>772</xdr:row>
+      <xdr:rowOff>18610</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="156" name="Flèche vers la gauche 155"/>
+        <xdr:cNvPr id="163" name="Flèche vers la gauche 162"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="14711485">
-          <a:off x="7727691" y="136801276"/>
-          <a:ext cx="2564245" cy="201656"/>
+        <a:xfrm rot="14149359">
+          <a:off x="2681182" y="144204909"/>
+          <a:ext cx="5543533" cy="215870"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
           <a:avLst/>
@@ -9292,26 +9292,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>116212</xdr:colOff>
-      <xdr:row>705</xdr:row>
-      <xdr:rowOff>124766</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>339311</xdr:colOff>
-      <xdr:row>725</xdr:row>
-      <xdr:rowOff>134139</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>735746</xdr:colOff>
+      <xdr:row>745</xdr:row>
+      <xdr:rowOff>127690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>126421</xdr:colOff>
+      <xdr:row>762</xdr:row>
+      <xdr:rowOff>37613</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="Flèche vers la gauche 156"/>
+        <xdr:cNvPr id="164" name="Flèche vers la gauche 163"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="14711485">
-          <a:off x="7398575" y="136225403"/>
-          <a:ext cx="3819373" cy="223099"/>
+        <a:xfrm rot="15779919">
+          <a:off x="5873622" y="143516314"/>
+          <a:ext cx="3148423" cy="216175"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
           <a:avLst/>
@@ -9358,25 +9358,97 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>724</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>726</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>769</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>770</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="158" name="Rectangle 157"/>
+        <xdr:cNvPr id="165" name="Rectangle 164"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6845300" y="138099800"/>
-          <a:ext cx="6781800" cy="279400"/>
+          <a:off x="7061200" y="146621500"/>
+          <a:ext cx="1955800" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>762</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>769</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="Rectangle 165"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7061200" y="145224500"/>
+          <a:ext cx="2057400" cy="1384300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9754,8 +9826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A693" workbookViewId="0">
-      <selection activeCell="O695" sqref="O695"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A742" workbookViewId="0">
+      <selection activeCell="M760" sqref="M760"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/lisha1.00/doc_tech/screenshots.xlsx
+++ b/lisha1.00/doc_tech/screenshots.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25840" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="16840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -9494,6 +9494,260 @@
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>780</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>799</xdr:row>
+      <xdr:rowOff>128341</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="152" name="Image 151"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1397000" y="148590000"/>
+          <a:ext cx="5207000" cy="3747841"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>782</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>783</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="Rectangle 166"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3340100" y="149085300"/>
+          <a:ext cx="1397000" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>781</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>782</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="Ellipse 167"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1549400" y="148793200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>780</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>72124</xdr:colOff>
+      <xdr:row>781</xdr:row>
+      <xdr:rowOff>161022</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="Flèche vers la gauche 168"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13477304">
+          <a:off x="2730500" y="148666200"/>
+          <a:ext cx="643624" cy="275322"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9826,8 +10080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A742" workbookViewId="0">
-      <selection activeCell="M760" sqref="M760"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A771" workbookViewId="0">
+      <selection activeCell="L789" sqref="L789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/lisha1.00/doc_tech/screenshots.xlsx
+++ b/lisha1.00/doc_tech/screenshots.xlsx
@@ -64,20 +64,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>626</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>630</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>807</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>809</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="131" name="Image 130"/>
+        <xdr:cNvPr id="154" name="Image 153"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -90,8 +90,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8255000" y="119253000"/>
-          <a:ext cx="2095500" cy="876300"/>
+          <a:off x="1549400" y="153873200"/>
+          <a:ext cx="9207500" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -109,20 +109,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>349</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>626</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>50991</xdr:colOff>
-      <xdr:row>365</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>630</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Image 52"/>
+        <xdr:cNvPr id="131" name="Image 130"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -135,8 +135,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1447800" y="66586100"/>
-          <a:ext cx="8509191" cy="3009900"/>
+          <a:off x="8255000" y="119253000"/>
+          <a:ext cx="2095500" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -154,20 +154,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50991</xdr:colOff>
+      <xdr:row>365</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Image 18"/>
+        <xdr:cNvPr id="53" name="Image 52"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -180,8 +180,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029200" y="32118300"/>
-          <a:ext cx="6337300" cy="2628900"/>
+          <a:off x="1447800" y="66586100"/>
+          <a:ext cx="8509191" cy="3009900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -199,20 +199,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Image 31"/>
+        <xdr:cNvPr id="19" name="Image 18"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -225,8 +225,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2425700" y="1346200"/>
-          <a:ext cx="4292600" cy="1701800"/>
+          <a:off x="5029200" y="32118300"/>
+          <a:ext cx="6337300" cy="2628900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -244,20 +244,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 7"/>
+        <xdr:cNvPr id="32" name="Image 31"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -270,6 +270,51 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="2425700" y="1346200"/>
+          <a:ext cx="4292600" cy="1701800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="8839200" y="9359900"/>
           <a:ext cx="1816100" cy="1193800"/>
         </a:xfrm>
@@ -430,7 +475,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1092,7 +1137,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1202,7 +1247,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1449,7 +1494,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1624,7 +1669,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1734,7 +1779,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1844,7 +1889,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2163,7 +2208,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2273,7 +2318,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2934,51 +2979,6 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2463800" y="35687000"/>
-          <a:ext cx="3886200" cy="2489200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="43000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Image 67"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
@@ -2986,8 +2986,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9537700" y="35915600"/>
-          <a:ext cx="6045200" cy="2870200"/>
+          <a:off x="2463800" y="35687000"/>
+          <a:ext cx="3886200" cy="2489200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3003,136 +3003,22 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="Connecteur droit avec flèche 68"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10388600" y="35788600"/>
-          <a:ext cx="1803400" cy="1422400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="Connecteur droit avec flèche 70"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12179300" y="35788600"/>
-          <a:ext cx="2501900" cy="1485900"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>226</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Image 73"/>
+        <xdr:cNvPr id="68" name="Image 67"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3145,8 +3031,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3416300" y="40538400"/>
-          <a:ext cx="5829300" cy="2578100"/>
+          <a:off x="9537700" y="35915600"/>
+          <a:ext cx="6045200" cy="2870200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3162,22 +3048,136 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Connecteur droit avec flèche 68"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10388600" y="35788600"/>
+          <a:ext cx="1803400" cy="1422400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Connecteur droit avec flèche 70"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12179300" y="35788600"/>
+          <a:ext cx="2501900" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>244</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Image 21"/>
+        <xdr:cNvPr id="74" name="Image 73"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3190,8 +3190,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2413000" y="44234100"/>
-          <a:ext cx="7493000" cy="2273300"/>
+          <a:off x="3416300" y="40538400"/>
+          <a:ext cx="5829300" cy="2578100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3207,87 +3207,22 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292101</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>440054</xdr:colOff>
-      <xdr:row>231</xdr:row>
-      <xdr:rowOff>135993</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Flèche vers la gauche 53"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="19368541">
-          <a:off x="7721601" y="43853099"/>
-          <a:ext cx="973453" cy="288394"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>266</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Image 22"/>
+        <xdr:cNvPr id="22" name="Image 21"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3300,8 +3235,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3492500" y="47726600"/>
-          <a:ext cx="7518400" cy="3073400"/>
+          <a:off x="2413000" y="44234100"/>
+          <a:ext cx="7493000" cy="2273300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3317,22 +3252,87 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292101</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>440054</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>135993</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Flèche vers la gauche 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19368541">
+          <a:off x="7721601" y="43853099"/>
+          <a:ext cx="973453" cy="288394"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>273</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>291</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Image 23"/>
+        <xdr:cNvPr id="23" name="Image 22"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3345,8 +3345,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1651000" y="52006500"/>
-          <a:ext cx="8178800" cy="3429000"/>
+          <a:off x="3492500" y="47726600"/>
+          <a:ext cx="7518400" cy="3073400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3362,87 +3362,22 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>274</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>338453</xdr:colOff>
-      <xdr:row>275</xdr:row>
-      <xdr:rowOff>110594</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Flèche vers la gauche 56"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="19368541">
-          <a:off x="7620000" y="52209700"/>
-          <a:ext cx="973453" cy="288394"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>298</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>317</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Image 25"/>
+        <xdr:cNvPr id="24" name="Image 23"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3455,8 +3390,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5626100" y="56845200"/>
-          <a:ext cx="8407400" cy="3670300"/>
+          <a:off x="1651000" y="52006500"/>
+          <a:ext cx="8178800" cy="3429000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3474,25 +3409,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>313</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>262253</xdr:colOff>
-      <xdr:row>315</xdr:row>
-      <xdr:rowOff>34395</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>338453</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>110594</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="Flèche vers la gauche 58"/>
+        <xdr:cNvPr id="57" name="Flèche vers la gauche 56"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="19368541">
-          <a:off x="11671300" y="59753501"/>
+          <a:off x="7620000" y="52209700"/>
           <a:ext cx="973453" cy="288394"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
@@ -3539,20 +3474,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>324</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>339</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Image 49"/>
+        <xdr:cNvPr id="26" name="Image 25"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3565,8 +3500,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1143000" y="61760100"/>
-          <a:ext cx="6832600" cy="2921000"/>
+          <a:off x="5626100" y="56845200"/>
+          <a:ext cx="8407400" cy="3670300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3584,25 +3519,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>325</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>681353</xdr:colOff>
-      <xdr:row>326</xdr:row>
-      <xdr:rowOff>174094</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>262253</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>34395</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="Flèche vers la gauche 61"/>
+        <xdr:cNvPr id="59" name="Flèche vers la gauche 58"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="19368541">
-          <a:off x="4660900" y="61988700"/>
+          <a:off x="11671300" y="59753501"/>
           <a:ext cx="973453" cy="288394"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
@@ -3649,20 +3584,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>332</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>342</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Image 26"/>
+        <xdr:cNvPr id="50" name="Image 49"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3675,8 +3610,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9906000" y="63246000"/>
-          <a:ext cx="3835400" cy="2070100"/>
+          <a:off x="1143000" y="61760100"/>
+          <a:ext cx="6832600" cy="2921000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3694,25 +3629,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>331</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>274953</xdr:colOff>
-      <xdr:row>333</xdr:row>
-      <xdr:rowOff>97893</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>681353</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>174094</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="Flèche vers la gauche 62"/>
+        <xdr:cNvPr id="62" name="Flèche vers la gauche 61"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="19368541">
-          <a:off x="12509500" y="63245999"/>
+          <a:off x="4660900" y="61988700"/>
           <a:ext cx="973453" cy="288394"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
@@ -3757,307 +3692,22 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>352</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>364</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="Connecteur droit 59"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5969000" y="67119500"/>
-          <a:ext cx="12700" cy="2273300"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="none"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>352</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>364</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="Connecteur droit 69"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4000500" y="67132200"/>
-          <a:ext cx="12700" cy="2273300"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="none"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>352</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>364</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="Connecteur droit 71"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2019300" y="67132200"/>
-          <a:ext cx="12700" cy="2273300"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="none"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>352</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>364</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="Connecteur droit 72"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7950200" y="67119500"/>
-          <a:ext cx="12700" cy="2273300"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="none"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>352</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>364</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="75" name="Connecteur droit 74"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9931400" y="67119500"/>
-          <a:ext cx="12700" cy="2273300"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="none"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>68030</xdr:colOff>
-      <xdr:row>370</xdr:row>
+      <xdr:row>342</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>381</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Image 50"/>
+        <xdr:cNvPr id="27" name="Image 26"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4070,8 +3720,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3370030" y="70650100"/>
-          <a:ext cx="7056670" cy="1968500"/>
+          <a:off x="9906000" y="63246000"/>
+          <a:ext cx="3835400" cy="2070100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4089,25 +3739,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>377</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>300353</xdr:colOff>
-      <xdr:row>379</xdr:row>
-      <xdr:rowOff>21695</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>274953</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>97893</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="Flèche vers la gauche 75"/>
+        <xdr:cNvPr id="63" name="Flèche vers la gauche 62"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="19368541">
-          <a:off x="5105400" y="71932801"/>
+          <a:off x="12509500" y="63245999"/>
           <a:ext cx="973453" cy="288394"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
@@ -4152,22 +3802,307 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>352</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Connecteur droit 59"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5969000" y="67119500"/>
+          <a:ext cx="12700" cy="2273300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>352</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Connecteur droit 69"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4000500" y="67132200"/>
+          <a:ext cx="12700" cy="2273300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>352</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Connecteur droit 71"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2019300" y="67132200"/>
+          <a:ext cx="12700" cy="2273300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>352</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Connecteur droit 72"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7950200" y="67119500"/>
+          <a:ext cx="12700" cy="2273300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>352</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Connecteur droit 74"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9931400" y="67119500"/>
+          <a:ext cx="12700" cy="2273300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>389</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>398</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68030</xdr:colOff>
+      <xdr:row>370</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>381</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Image 55"/>
+        <xdr:cNvPr id="51" name="Image 50"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4180,8 +4115,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1993900" y="74168000"/>
-          <a:ext cx="6286500" cy="1803400"/>
+          <a:off x="3370030" y="70650100"/>
+          <a:ext cx="7056670" cy="1968500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4199,25 +4134,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>388</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>224153</xdr:colOff>
-      <xdr:row>390</xdr:row>
-      <xdr:rowOff>85194</xdr:rowOff>
+      <xdr:colOff>300353</xdr:colOff>
+      <xdr:row>379</xdr:row>
+      <xdr:rowOff>21695</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="Flèche vers la gauche 76"/>
+        <xdr:cNvPr id="76" name="Flèche vers la gauche 75"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="19368541">
-          <a:off x="5854700" y="74091800"/>
+          <a:off x="5105400" y="71932801"/>
           <a:ext cx="973453" cy="288394"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
@@ -4264,6 +4199,116 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>389</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Image 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1993900" y="74168000"/>
+          <a:ext cx="6286500" cy="1803400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>388</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>224153</xdr:colOff>
+      <xdr:row>390</xdr:row>
+      <xdr:rowOff>85194</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Flèche vers la gauche 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19368541">
+          <a:off x="5854700" y="74091800"/>
+          <a:ext cx="973453" cy="288394"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
       <xdr:row>404</xdr:row>
@@ -4283,7 +4328,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4465,7 +4510,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4582,7 +4627,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4627,7 +4672,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4882,7 +4927,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5767,7 +5812,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6022,7 +6067,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6277,7 +6322,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6460,7 +6505,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6798,7 +6843,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7086,7 +7131,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7374,7 +7419,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7693,7 +7738,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7875,7 +7920,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8057,7 +8102,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8239,7 +8284,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8421,7 +8466,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8603,7 +8648,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8785,7 +8830,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8967,7 +9012,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9012,7 +9057,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9057,7 +9102,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9520,7 +9565,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9748,6 +9793,150 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>808</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>809</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="Rectangle 169"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7950200" y="153924000"/>
+          <a:ext cx="2349500" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>807</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>809</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="Rectangle 170"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3670300" y="153911300"/>
+          <a:ext cx="520700" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10080,8 +10269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A771" workbookViewId="0">
-      <selection activeCell="L789" sqref="L789"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A781" workbookViewId="0">
+      <selection activeCell="L803" sqref="L803"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/lisha1.00/doc_tech/screenshots.xlsx
+++ b/lisha1.00/doc_tech/screenshots.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="16840" tabRatio="500"/>
@@ -9894,6 +9894,476 @@
           <a:ext cx="520700" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>815</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>825</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="153" name="Image 152"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1651000" y="155257500"/>
+          <a:ext cx="2794000" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>816</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>818</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="Ellipse 171"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="155600400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>816</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>823</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="155" name="Image 154"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="155625800"/>
+          <a:ext cx="2273300" cy="1270000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>818</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>819</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="Ellipse 172"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6756400" y="155879800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dashDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>831</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>839</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="156" name="Image 155"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="158305500"/>
+          <a:ext cx="2565400" cy="1612900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>832</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>834</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="Ellipse 173"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4025900" y="158661100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dashDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>833</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>840</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="157" name="Image 156"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6616700" y="158711900"/>
+          <a:ext cx="1866900" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>834</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>836</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="Ellipse 174"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7607300" y="159004000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -10269,8 +10739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A781" workbookViewId="0">
-      <selection activeCell="L803" sqref="L803"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A810" workbookViewId="0">
+      <selection activeCell="K826" sqref="K826"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/lisha1.00/doc_tech/screenshots.xlsx
+++ b/lisha1.00/doc_tech/screenshots.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="16840" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="360" windowWidth="20160" windowHeight="16840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10370,6 +10374,241 @@
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>846</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>850</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="158" name="Image 157"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="977900" y="161188400"/>
+          <a:ext cx="2146300" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>847</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>848</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="Ellipse 175"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="161366200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>845</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>850</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="177" name="Image 176"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5321300" y="161137600"/>
+          <a:ext cx="2197100" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>846</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>848</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="Ellipse 177"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5207000" y="161277300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dashDot"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
         <a:effectLst>
@@ -10739,8 +10978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A810" workbookViewId="0">
-      <selection activeCell="K826" sqref="K826"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A826" workbookViewId="0">
+      <selection activeCell="H844" sqref="H844"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/lisha1.00/doc_tech/screenshots.xlsx
+++ b/lisha1.00/doc_tech/screenshots.xlsx
@@ -16,10 +16,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10646,6 +10642,442 @@
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>855</xdr:row>
+      <xdr:rowOff>96070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>867</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="181" name="Image 180"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1346200" y="162973570"/>
+          <a:ext cx="8140700" cy="2355029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>861</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>862</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="Rectangle 181"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667500" y="164045900"/>
+          <a:ext cx="2451100" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>871</xdr:row>
+      <xdr:rowOff>21572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>888</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="183" name="Image 182"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2959100" y="165947072"/>
+          <a:ext cx="8166100" cy="3382028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>872</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>873</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="Rectangle 183"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7493000" y="166268400"/>
+          <a:ext cx="495300" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>196851</xdr:colOff>
+      <xdr:row>869</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>472173</xdr:colOff>
+      <xdr:row>872</xdr:row>
+      <xdr:rowOff>129273</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="Flèche vers la gauche 184"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7442200" y="165785800"/>
+          <a:ext cx="643624" cy="275322"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>877</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>878</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="186" name="Rectangle 185"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6146800" y="167068500"/>
+          <a:ext cx="965200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>730251</xdr:colOff>
+      <xdr:row>873</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180073</xdr:colOff>
+      <xdr:row>876</xdr:row>
+      <xdr:rowOff>167373</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="Flèche vers la gauche 186"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="6324600" y="166585900"/>
+          <a:ext cx="643624" cy="275322"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="50800" dir="3780000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10978,8 +11410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A826" workbookViewId="0">
-      <selection activeCell="H844" sqref="H844"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A860" workbookViewId="0">
+      <selection activeCell="M867" sqref="M867"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
